--- a/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman, and good afternoon everyone. I am pleased to be here for the second Subcommittee on Forestry and Conservation hearing for this Congress. We have gotten off to a good and a strong start, and I look forward to continuing this Subcommittee's work as we begin to review forestry programs.    New Mexico is home to 9.1 million acres of Forest Service land, including the Gila National Forest, which is the sixth largest forest in the continental U.S. Our National Forests provide us with many benefits, including, as you have heard from the Chairman, high quality water, wildlife habitats, forest products, and opportunities for outdoor recreation and education. Clearly protecting and improving the management of our forests are top priorities for me and many of the communities in my district.    I believe the Chairman shares this passion, as do many of the Subcommittee Members. I hope that today's hearing will be the first, frankly, of many opportunities for the Subcommittee to take a real in-depth look at forestry issues. More specifically, I am looking forward to discussing the impact that wildfires and drought have, and will continue to have, on forests in the Southwest, and not just forests, but the surrounding communities.    Most recently, New Mexico, like many other states in the Southwest, experienced record-breaking fires that burned hundreds of thousands of acres, and resulted in millions of dollars of damages. These are real problems that must be addressed, and that are threatening to devastate many parts of my state and the district. That is, quite frankly, before we talk about the public safety issues related to the men and women who fight those wildfires, and the communities in which homes and businesses and lives are destroyed.    These are real problems, they have to be addressed, and they are threatening to devastate many more parts of the state and the district. The current cycle of fire borrowing is not working, and contributes to more fires. For those not familiar with the term, fire borrowing occurs when the Forest Service has to dip into other programs to pay for rising fire suppression costs. Last year, USDA sent a report to Congress notifying us that the agency needed $470 million more to fight wildfires that season. This trend is not new, nor do I expect it to go away. Both USDA and DOI have had to divert funds from other programs to fund suppression efforts for 7 of the last 12 years. In addition, we should be looking at innovative and more cost-efficient ways to suppress fires.    Now, I recently had the opportunity to meet with a company in my district that has developed larger planes, or tankers, that can deliver four times more retardant than any other tanker employed today. This allows them to put out fires much more quickly, which saves lives, and reduces costs and damages.    In closing, I hope this hearing will help identify ways that Congress can help prevent wildfires, improve the way we respond to fires, and assist communities with post-fire recovery.    I welcome Chief Tidwell and the rest of the witnesses joining us today. Laura McCarthy works in New Mexico, and was recently recognized as the New Mexico Environmental Leader of the Year for establishing the Rio Grande Water Fund, a very important project in New Mexico. I know we are going to hear more about that in her testimony, or at least I hope so, today. I look forward to today's testimony.    I thank the Chairman, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Tidwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tidwell. Mr. Chairman, Ranking Member, Members of the Subcommittee, once again, I really appreciate the opportunity to be here today to be able to talk about a very important subject, and that is the health of our National Forests, the health of our nation's forests. I appreciate both of the opening remarks that so clearly describe the overall benefits that the American public rely on from these lands. I also want to thank you for the farm bill. We are just beginning to start using those new authorities, and it is really going to make a difference to be able to help us to support rural economies while improving the health of our nation's forest.    As you have already said, today, our National Forests are more important to the nation than ever. Restoring the health and resilience of these forests not only generates all the benefits that you have described, but it is also those economic benefits, those economic engines, for so many of our rural communities. In Fiscal Year 2011, for example, the various activities on the National Forest and Grasslands contributed over $36 billion to America's gross domestic product, and supported nearly 450,000 jobs. But to be able to maintain all of those benefits, those economic activities, it is essential that we continue to restore and maintain these lands, and it is one of the reasons why we continue to increase the number of acres we are treating every year.    In 2013, we treated 2.5 million acres to restore the health of these lands, and in Fiscal Year 2014, we increased that to 2.9 million acres. At the same time, we are also increasing the outputs, for instance, with timber production. In Fiscal Year 2013, we sold 2.6 billion board feet, and Fiscal Year 2014, that went up to 2.8 billion. This year we have a target of 2.9 billion. And in 2016, with our budget request, we are estimating we will be at 3.2 billion, which just demonstrates the importance for us to be able to do the work on the land to produce these key benefits.    The way we have been able to continue to increase the acres treated and produce these key outputs is several innovative restoration efforts that we have going. The first is collaboration. This concept of working with communities in a way that they have more of a say, a greater engagement, is really building more support for us to be able to take on projects across large landscapes. We have our Collaborative Forest Landscape Restoration Program projects that are looking at landscapes from about 130,000 to over 600,000 acres, and being able to dedicate multiyear funding to these areas, it is really proving to be a success on these 23 projects. We are also improving our approach on NEPA to be able to not only do large-scale projects, but also to use the concept of adaptive management that allows us to do one set of analysis that allows us to do the work that is needed over a set period of years. We are continuing to expand our markets, which is essential for us to be able to have a way to put the biomass of saw timber to use. And then with the farm bill, I look at the farm bill authorities and they are going to help us to expand. Stewardship contracting; thank you for making that permanent. The Good Neighbor Authority, the insect and disease provisions that will help us to reduce the amount of time it takes for us to be able to do the analysis, and also the new categorical exclusion for us to be able to treat up to 3,000 acres with that CE.    Now, with the passage of the farm bill, we moved quickly to work with the governors to designate 46.7 million acres where we can use the Insect and Disease Authority, but many of our projects in Fiscal Year 2014, and Fiscal Year 2015, already had the planning started. So we are really going to see the benefits of the farm bill really start coming together at the start of this year, but especially next year. For this year, we have nine projects already that are lined up to be able to use these new authorities, so we will be able to demonstrate the benefits of that. Also with the Good Neighbor Authority, we are working closely with the states, with the Tribes, with other stakeholders to put together a set of templates that not only works for the Forest Service, but more importantly works for the state, so that we can use this authority to actually increase the capacity for us to be able to get more work done, working through the states, and this will also expand our partnership efforts.    So these are the things that we have going, the progress that we are making, and I will tell you, I am tremendously proud about the work that is getting done, the work we are doing with our partners and our communities. And once again, the farm bill, those authorities are really going to make a difference as we move forward.    Thank you for your time this afternoon. I look forward to your questions.</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman.    Chief Tidwell, thanks for being here. I am going to have a couple of questions. The Northern Long-Eared Bat has been recently listed as threatened under the Endangered Species Act, so there is an interim management rule in place, with a comment period open until July. How is your agency working to provide information to those who work the forests to ensure that they have everything under control and everything they need to comply with the new listing?</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek.--because, as you may know, I had some of the Forest Supervisors in the office here yesterday, and trying to proceed with learning more about this program and how it moves forward.    With that, I yield back.    The Chairman. I thank the gentleman.    And I now recognize Congresswoman DelBene, for 5 minutes.    Ms. DelBene. Thank you, Mr. Chairman. Thank you, Chief Tidwell, for being here with us today.    One thing I hear often from our rural and forested communities is the concern that the Forest Service staff, jobs, and offices continue to move further away from the rural areas that they represent and impact. More and more, we see fewer agency boots on the ground, fewer personnel interacting with the communities that are most impacted by their actions. And when personnel live outside of the district, and work remotely 40 or 50 miles from the forests, they have less knowledge about what is happening in the woods that they are supposed to be managing, and what is happening in the communities as well.    The communities also lose the diversity of their community and suffer economic impacts when folks live and work elsewhere. And we have some great Forest Service staff in our communities, in the Mount Baker-Snoqualmie Forest in particular, but I would be interested to hear your thoughts and comments on this issue, which is a growing disconnect across our country.</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Okay. Well, thank you, Chief, for coming and appearing before the Subcommittee today.    My former role in life was in the construction industry, and we did use a lot of laminated timber for large spans in gymnasiums and other facilities, which created these facilities. And so I look forward to continuing working with you and our industry on those types of applications.    In my home State of Georgia, we have over 24 million acres in private forest, which I am told is the most of any state in the nation.    I meet, and since I have been in Congress now for a little over 4 months, and we have met with a number of our timber folks. They have questioned--the first thing I should say is you have talked about funding today, but they have questioned the U.S. Forest Service management practices, which a lot of those management practices deal with preventing the outbreak of a fire. Are we where we need to be with the extent of management practices in the Forest Service to prevent these fires?</t>
   </si>
   <si>
@@ -196,9 +181,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen.--because we have a lot of folks, a lot of friends in that business, and they can help you get answers to those questions. Thank you, Chief.    And with that, I yield back the remainder of my time.    The Chairman. I thank the gentleman.    I now recognize the gentlelady from Arizona for 5 minutes of questioning.    Mrs. Kirkpatrick. Thank you, Mr. Chairman.    Chief, it is nice to see you here today. And in following along the line of sustainability, I was born in the timber town of McNary, Arizona. In fact, I spent most of my life living in the mountain forests of Arizona, and I have seen the change in wildfire. And, of course, about this time of year, we become very concerned about the horrific wildfires that we have had to endure in the last few years.    And so I was happy to see in your written testimony that you acknowledged the Four Forest Restoration Project, which is an innovative collaborative approach to addressing forest health, and bringing back the timber industry. Recently, the Record of Decision was signed on April 17 for the initial environmental impact statement, but there have been stumbles along the way, as you know. I just wanted to reference a recent editorial from the Arizona Republic, and, Mr. Chairman and Ranking Member, I would like it added to the record. It addresses some of the changes and--that this is going to--the good things that are going to happen out of this, but also some of the challenges that we face.    The Chairman. Without objection.    [The information referred to is located on p. 91.]</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman. And thank you too, Ranking Member Lujan Grisham. And thank you to Chief Tidwell for being with us today. We appreciate the time. I am very grateful for the work that you do, and to your Forest Service staff in New Hampshire and the work that we are focused on.    I want to share with you are some concerns with you, though we may have to leave for a vote soon so I am going to just cut to the chase. I am usually much more polite. The question is from recent conversations. I meet with my timber and lumber and landowners frequently, and they were expressing a great deal of frustration that their forest management plans were not living up to their goals. And as I was listening to them, it just felt like a disconnect. Sometimes around here you will get one version from one group and another version from another, but it seemed that the forest management plans didn't necessarily reflect the reality of what is happening, or what, frankly, could happen on the ground. And so I realize that there are budgetary and other constraints keeping the Forest Service from getting closer to meeting the timber harvest goals, but my concern is a little bit different, and I would love your response to it. I am wondering if whether the forest management plans aren't based on formulas or guidelines that don't take into the reality on the ground; location, ease of access, species distribution, land use goals, and that really what--I am an attorney, we call that a meeting of the minds that we don't have a meeting of the minds laid out in that plan, and then we end up with these divergent expectations, and peoples' goals are not being met. Could you comment, and is there anything that we could do to get people closer to actually having an understanding of the amount of timber that we can harvest from the land in a sustainable way?</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    Just a real quick question, because I noticed in your written testimony, and when we were looking that over, and you may not know the answer to this but if you can find it out, one of the things you talked about was a specific project. It was a Kinkaid Reeds Creek Project. And I am very, very familiar with that, and as a matter of fact, I was around when the lake was--I was around driving with my grandfather in a truck when the dam was built for that, okay? And when it was built, we knew that the watershed was a very quick watershed, and it is a very deep lake, but the project that you worked on is a silting on the north end. Are you familiar enough with the project, because what I am going to ask--and if I can't get that answer today, I would like to get it in writing. I know you are working with the different groups to try to stop the silting from coming in. Is it to the point that you have slowed it enough, and if it is not slowed enough, can it be slowed enough that then we can dredge that north end, and take the depth of that particular water reservoir back to where it was. The water's depth is good now, but we need to make sure that we get it back down to the depth, and I didn't know if we were to that point or not.</t>
   </si>
   <si>
@@ -313,19 +289,10 @@
     <t xml:space="preserve">    Ms. Lujan Grisham. Mr. Chairman, that is very kind. And I was going to thank Ms. Laura McCarthy, who is the Director of the Conservation Programs at The Nature Conservancy in Santa Fe, New Mexico, which, unfortunately, is not in my district, but where I grew up, and has had a great influence on many projects not only in my district, but the health of so many issues, and forests and conservation issues across the state. And I just want to thank you for your work with my office, and I am very gratified that you are here today. Thank you so much. And thank you, Mr. Chairman.    The Chairman. All right. Now, we will proceed.    Ms. Swanson, go ahead and proceed with your 5 minutes of testimony whenever you are ready.</t>
   </si>
   <si>
-    <t>Swanson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Swanson. I forgot to press the button. Should have known. And the Federal Forest Resource Coalition. I really appreciate the opportunity to talk to you about our National Forest, which is the Allegheny. The Allegheny is our largest landownership block in our region at 513,000 acres, which is really small compared to a lot of your National Forests. But the management of that forest is vital for the future of the forest products industry.    The Allegheny, like many National Forests, is not really contributing to where we would like it, and able to support our local economy, and meet the goals that are actually laid out in our forest plan. After years of timber sale litigation, the plan actually set some very modest goals. For example, the goal for regeneration harvest is 1,700 to 2,500 acres per year. And in the first 6 years of implementation, the forest has only averaged 500 acres of regeneration harvest. So you can see that that isn't going to get us where we need to go. And the result of that is we have very much less early succession forest than what we would like to have. Over the last 5 years, timber outputs for the forest have declined by about 11 percent, and in addition to that, 40 percent of our outputs is in lower value timber rather than the valuable saw timber that drives our forest products economy.    Pennsylvania is known for its high quality hardwoods, and the Allegheny has always been in the center of that. At least it has in the past. It seems to us that the problems are sort of two-fold, probably more than that, but I am going to speak to two. Initially, when the forest draws up plans to work on projects, and they would actually meet forest plan objectives. Then, after lengthy NEPA and surveys, layer upon layer, the projects are actually diminished, and in some cases, in the end, they don't actually meet the objectives that were laid out in the first place. And generally, they have marginal economic value for timber producers. The goal of a diverse healthy forest ecosystem is often compromised.    Second, the forest, because of litigation, has decided the best approach to management is to try to develop projects that would draw no objections. This tendency to kind of assume that collaboration must mean unanimous, gives management groups power over them, whether they appeal or not. And we have actually seen where our forest didn't use the new authority that they were given under the insect and disease designation. We would like to see them do that. We have Hemlock woolly adelgid in our state, we have the Emerald Ash Borer, and we would have liked to have seen them use it on those things. And we hope that they will, but they are a little afraid to be the first one in the East to actually use that.    At the end of the day, we have an aging forest that is starting to show serious signs of decline. Instead of regeneration of commercially valuable species, we are focusing on thinning, older stands. Professional foresters talk about the need to continue to change the stand composition. It is like prescribing vigorous exercise to nursing home residents. Something is probably going to happen, but I don't know if it will be good.    In my written testimony, we made some recommendations about further legislation. The farm bill and the things that you have done we really appreciate, but it does encourage collaboration, it expedites analysis, and it reduces gridlock, but the real need is to clarify the management mandate on National Forests. Go beyond giving them permission to manage, and start providing direction for them to manage. I would like to see a trust approach to relatively small portions of the National Forest designated for timber production. It would be a good starting point. Let's manage those areas that we really are supposed to manage. Federal Forest Resource Coalition stands ready to help the Forest Service and you to do that. We would like to find a better way.</t>
   </si>
   <si>
-    <t>Humphries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Humphries. Well, thank you very much, Mr. Chairman, Ranking Member.    The National Wild Turkey Federation applauds the Committee's focus on active forest management. We have 230,000 members across the country, and active chapters in each and every state of this country.    With the successful restoration of the wild turkey across its range, we have refocused our efforts and are working on Save the Habitat, Save the Hunt initiative. This initiative is really geared at making sure that we are doing active forest management, and helping to improve that upland habitat that is so important for wild turkeys, as well as of other host of species, and also saving our hunting heritage that is so important.    Wildlife managers and our wildlife biologists consider active management the best solution to meet habitat requirements of the largest variety of species, and create young forest habitat that provide for food, nesting habitat, and hiding places for wildlife. Throughout the United States, we are losing the diversity at a landscape level scale, threatening habitat for species like the Golden Wing Warbler, the New England Cottontail, the Gopher Tortoise, the Red-cockaded Woodpecker, and many, many other species. We have a number of examples, but I will give you just three of them as we talk today. On the Oconee National Forest in Piedmont National Wildlife Refuge in Georgia, we and the U.S. Forest Service have actively managed over 21,000 acres of loblolly pine habitat to increase pine savannah and young forest habitat for endangered Red-cockaded Woodpecker. It has resulted in a 27 percent increase in potential breeding pairs on that, as well as population increases for the Southern Flying Squirrel, the Bobwhite Quail, the wild turkey, and a variety of migratory songbirds. The management of healthy forests is made economically viable by the harvest and sale of forest products, including timber, and timber sales offset the cost of reforestation, invasive species control, prescribed fire, and timber stand improvements.    Federal lands play a really vital role in maintaining healthy forests, in that they are resilient to the threats at this landscape level. Federal timber management keeps the mills open, it brings stability to the supply and demand market, and it provides local jobs, and we need those. Active management of our Federal forests reduces devastating wildfires, it reduces insect and forest diseases before those diseases can spread to adjacent state lands and private forestlands, and increases forest health and diversity.    We really appreciate the authorities that have been granted in recent years by the Agriculture Committee to address forest health. The 2014 Farm Bill, as has been mentioned, has granted permanent authorization of stewardship contracting and Good Neighbor Authority. It has also established insect and disease area designations to the existing Wyden Amendment and Cooperative Forest Landscape Restoration Programs. These authorities can lead to healthier forests if they are implemented properly. The National Wild Turkey Federation has been the leader in stewardship contracting program, and we have partnered with the U.S. Forest Service on 81 forest stewardship projects in the last decade.    A couple of these examples: In New Mexico, we worked on the Cibola National Forest, and it was part of the Blue Waters Stewardship Agreement. The National Wild Turkey Federation and our partners, including the Mount Taylor Machine Sawmill, have provided matching funds to the project which has expanded a number of treated acres by over 20 percent in that particular area. The work makes the forest healthier, it supports a small community of Milan, New Mexico.    In another example, we also worked with Land Between the Lakes National Recreation Area in Kentucky and Tennessee. Following a damaging ice storm, we restored access to over 170,000 acres by facilitating multiple logging contracts to open the roads and clean up debris, and our stewardship efforts continue to work on almost 6,000 acres each and every year there.    Despite all this, we need to move forward and have more progress made on active management. So I offer the following suggestions. First, we need to help the agencies expand collaborative efforts in the early stages of the process, and that means talking about the benefits of active management needed to carry out those in order to get the desired future condition. It needs to start at the beginning, not at the end, as was mentioned. We need to work at the landscape level to achieve broad benefits, and that means working across ownership patterns. Not only the various Federal agencies, but also the state agencies and local. We need to solve the fire-funding program, which has been brought up numerous times today. The situation currently is just unacceptable. We need to encourage Federal agencies to use all available tools and all available authorities, and that includes the use of categorical exclusions.    I would like to close by saying the Committee has done great work. We stand ready to help both the National Forest System and this Committee as we move forward, and look to active management to make our forests healthier and sustainable in the future. Thank you.</t>
-  </si>
-  <si>
-    <t>McCarthy</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McCarthy. Thank you, Mr. Chairman, Ranking Member Lujan Grisham. I am Laura McCarthy with The Nature Conservancy in New Mexico, and I really appreciate this opportunity to share why National Forest management is so important to the people in my state, and give a little bit of a western perspective.    The reason National Forests are so important is water, and I am going to explain why with a few slides. You can see up here, this is the fire scene nobody wants to see looming over their town, but unfortunately for us in 2011, that is what we were greeted with. What is most important about that fire is what it left behind. This image is taken in Bland Canyon, and we ended up with a 30,000 acre hole that looked like this with nothing living in it. This is an out of category kind of severity and intensity of fire.    This will start automatically. It should be a video that is going to show you what happens when it rains on a burned area. This is actually a debris flow that came out of that burned area that I showed in the previous slide, and it happened after two very average afternoon thunderstorms about 6 weeks after the fire. It took 20 minutes for the water to get out of the headwaters, down into the valley. You can see an apple orchard there, and you can see barriers that the Army Corps of Engineers set up, expecting a volume of flow substantially less than what actually occurred. This kind of flooding keeps happening. It is now 4 years later and we are still having events that are depositing sediment into our river.    This is property damage after that flood. And this is where that canyon comes into the Rio Grande, and you can see a big mass of sediment that the Army Corps of Engineers estimates is 70\x7f deep. So we have mass movement of sediment, literally the soil, the lifeblood, out of the headwaters, down into the river, and this river carries water that supplies drinking water for \\1/2\\ of our state's population, and irrigates the incredibly productive farmland in the Rio Grande Valley. So it is very significant to us.    This is the reservoir that is \\1/2\\ a mile down from the confluence of Bland Canyon and the Rio Grande, and this was taken on the day after the flood. You can see what the reservoir looked like. The water samples are not from the reservoir, they are from another river that was affected by the same fire.    So now the solution. The science is really clear. We need to accelerate the pace and scale of restoration, and we want to really complement the Forest Service and the Administration for putting a focus on accelerating the pace and scale of restoration. You can't stop a fire from growing 43,000 acres in less than a day if all you can treat is 3,000 acres a year. We need to scale-up. And the Forest Service can't do it alone. That flood that I showed crossed many jurisdictions, and so must our solution. So we need to involve the Interstate Stream Commission, which manages the Rio Grande. We need to involve the Federal agencies that manage water.    What we have done in New Mexico is create a new partnership that we call the Rio Grande Water Fund, and it is much like many other collaboratives. What is unique though is the way in which we have involved the business community. We went to them, we started with the Chamber of Commerce in Albuquerque, we asked them if they were concerned about water security, and they responded really positively. So we have a very diverse partnership. We are leveraging funding from the business sector, also from the private sector in the philanthropy world, and the LOR Foundation is here with me today, because of the significant investment they have made as a catalyst for bringing other funding solutions to the table to leverage the Federal dollars.    Let me conclude with one policy priority. This is the compelling need for this Congress, in my opinion, and in The Nature Conservancy's view, and that is to provide a new fire suppression funding mechanism. It has been talked about by several of you today. A disaster cap adjustment is absolutely essential if you are able, as a Congress, to solve that problem, then the rest of the pieces are going to fall into place. It is the 800 pound gorilla. And we urge you to take action. We appreciate your leadership, and look forward to being able to work constructively on the other forest management issues once the fire-funding problem is solved.</t>
@@ -793,11 +760,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -817,13 +782,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -843,13 +806,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -869,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -895,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -921,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -947,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -975,11 +928,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -999,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1027,11 +976,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1051,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1079,11 +1024,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1103,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1131,11 +1072,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1155,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1181,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1207,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1233,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1259,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1285,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1311,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1337,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1363,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1389,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1415,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1441,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1467,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1493,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1519,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1545,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1571,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1597,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1623,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1649,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1675,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1701,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1727,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1753,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1779,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1805,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1831,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1857,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1883,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1909,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1935,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1961,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1987,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2013,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2039,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2065,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2091,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2117,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>66</v>
-      </c>
-      <c r="H53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2143,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2169,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2195,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2221,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2247,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2273,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2299,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2325,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>75</v>
-      </c>
-      <c r="H61" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2351,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2377,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2403,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2429,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2455,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2481,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2509,11 +2344,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2535,11 +2368,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2559,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2587,11 +2416,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2611,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2639,11 +2464,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2663,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2689,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2717,11 +2536,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2743,11 +2560,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2767,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2793,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2819,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2845,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2871,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2897,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2923,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2949,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2975,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3001,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3027,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3055,11 +2848,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3079,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>103</v>
-      </c>
-      <c r="H90" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3107,11 +2896,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3131,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3157,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3183,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3209,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3235,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3261,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>99</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3287,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>101</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3315,11 +3088,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3341,11 +3112,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3367,11 +3136,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3393,11 +3160,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman, and good afternoon everyone. I am pleased to be here for the second Subcommittee on Forestry and Conservation hearing for this Congress. We have gotten off to a good and a strong start, and I look forward to continuing this Subcommittee's work as we begin to review forestry programs.    New Mexico is home to 9.1 million acres of Forest Service land, including the Gila National Forest, which is the sixth largest forest in the continental U.S. Our National Forests provide us with many benefits, including, as you have heard from the Chairman, high quality water, wildlife habitats, forest products, and opportunities for outdoor recreation and education. Clearly protecting and improving the management of our forests are top priorities for me and many of the communities in my district.    I believe the Chairman shares this passion, as do many of the Subcommittee Members. I hope that today's hearing will be the first, frankly, of many opportunities for the Subcommittee to take a real in-depth look at forestry issues. More specifically, I am looking forward to discussing the impact that wildfires and drought have, and will continue to have, on forests in the Southwest, and not just forests, but the surrounding communities.    Most recently, New Mexico, like many other states in the Southwest, experienced record-breaking fires that burned hundreds of thousands of acres, and resulted in millions of dollars of damages. These are real problems that must be addressed, and that are threatening to devastate many parts of my state and the district. That is, quite frankly, before we talk about the public safety issues related to the men and women who fight those wildfires, and the communities in which homes and businesses and lives are destroyed.    These are real problems, they have to be addressed, and they are threatening to devastate many more parts of the state and the district. The current cycle of fire borrowing is not working, and contributes to more fires. For those not familiar with the term, fire borrowing occurs when the Forest Service has to dip into other programs to pay for rising fire suppression costs. Last year, USDA sent a report to Congress notifying us that the agency needed $470 million more to fight wildfires that season. This trend is not new, nor do I expect it to go away. Both USDA and DOI have had to divert funds from other programs to fund suppression efforts for 7 of the last 12 years. In addition, we should be looking at innovative and more cost-efficient ways to suppress fires.    Now, I recently had the opportunity to meet with a company in my district that has developed larger planes, or tankers, that can deliver four times more retardant than any other tanker employed today. This allows them to put out fires much more quickly, which saves lives, and reduces costs and damages.    In closing, I hope this hearing will help identify ways that Congress can help prevent wildfires, improve the way we respond to fires, and assist communities with post-fire recovery.    I welcome Chief Tidwell and the rest of the witnesses joining us today. Laura McCarthy works in New Mexico, and was recently recognized as the New Mexico Environmental Leader of the Year for establishing the Rio Grande Water Fund, a very important project in New Mexico. I know we are going to hear more about that in her testimony, or at least I hope so, today. I look forward to today's testimony.    I thank the Chairman, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Tidwell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tidwell. Mr. Chairman, Ranking Member, Members of the Subcommittee, once again, I really appreciate the opportunity to be here today to be able to talk about a very important subject, and that is the health of our National Forests, the health of our nation's forests. I appreciate both of the opening remarks that so clearly describe the overall benefits that the American public rely on from these lands. I also want to thank you for the farm bill. We are just beginning to start using those new authorities, and it is really going to make a difference to be able to help us to support rural economies while improving the health of our nation's forest.    As you have already said, today, our National Forests are more important to the nation than ever. Restoring the health and resilience of these forests not only generates all the benefits that you have described, but it is also those economic benefits, those economic engines, for so many of our rural communities. In Fiscal Year 2011, for example, the various activities on the National Forest and Grasslands contributed over $36 billion to America's gross domestic product, and supported nearly 450,000 jobs. But to be able to maintain all of those benefits, those economic activities, it is essential that we continue to restore and maintain these lands, and it is one of the reasons why we continue to increase the number of acres we are treating every year.    In 2013, we treated 2.5 million acres to restore the health of these lands, and in Fiscal Year 2014, we increased that to 2.9 million acres. At the same time, we are also increasing the outputs, for instance, with timber production. In Fiscal Year 2013, we sold 2.6 billion board feet, and Fiscal Year 2014, that went up to 2.8 billion. This year we have a target of 2.9 billion. And in 2016, with our budget request, we are estimating we will be at 3.2 billion, which just demonstrates the importance for us to be able to do the work on the land to produce these key benefits.    The way we have been able to continue to increase the acres treated and produce these key outputs is several innovative restoration efforts that we have going. The first is collaboration. This concept of working with communities in a way that they have more of a say, a greater engagement, is really building more support for us to be able to take on projects across large landscapes. We have our Collaborative Forest Landscape Restoration Program projects that are looking at landscapes from about 130,000 to over 600,000 acres, and being able to dedicate multiyear funding to these areas, it is really proving to be a success on these 23 projects. We are also improving our approach on NEPA to be able to not only do large-scale projects, but also to use the concept of adaptive management that allows us to do one set of analysis that allows us to do the work that is needed over a set period of years. We are continuing to expand our markets, which is essential for us to be able to have a way to put the biomass of saw timber to use. And then with the farm bill, I look at the farm bill authorities and they are going to help us to expand. Stewardship contracting; thank you for making that permanent. The Good Neighbor Authority, the insect and disease provisions that will help us to reduce the amount of time it takes for us to be able to do the analysis, and also the new categorical exclusion for us to be able to treat up to 3,000 acres with that CE.    Now, with the passage of the farm bill, we moved quickly to work with the governors to designate 46.7 million acres where we can use the Insect and Disease Authority, but many of our projects in Fiscal Year 2014, and Fiscal Year 2015, already had the planning started. So we are really going to see the benefits of the farm bill really start coming together at the start of this year, but especially next year. For this year, we have nine projects already that are lined up to be able to use these new authorities, so we will be able to demonstrate the benefits of that. Also with the Good Neighbor Authority, we are working closely with the states, with the Tribes, with other stakeholders to put together a set of templates that not only works for the Forest Service, but more importantly works for the state, so that we can use this authority to actually increase the capacity for us to be able to get more work done, working through the states, and this will also expand our partnership efforts.    So these are the things that we have going, the progress that we are making, and I will tell you, I am tremendously proud about the work that is getting done, the work we are doing with our partners and our communities. And once again, the farm bill, those authorities are really going to make a difference as we move forward.    Thank you for your time this afternoon. I look forward to your questions.</t>
   </si>
   <si>
@@ -100,6 +112,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman.    Chief Tidwell, thanks for being here. I am going to have a couple of questions. The Northern Long-Eared Bat has been recently listed as threatened under the Endangered Species Act, so there is an interim management rule in place, with a comment period open until July. How is your agency working to provide information to those who work the forests to ensure that they have everything under control and everything they need to comply with the new listing?</t>
   </si>
   <si>
@@ -130,6 +148,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek.--because, as you may know, I had some of the Forest Supervisors in the office here yesterday, and trying to proceed with learning more about this program and how it moves forward.    With that, I yield back.    The Chairman. I thank the gentleman.    And I now recognize Congresswoman DelBene, for 5 minutes.    Ms. DelBene. Thank you, Mr. Chairman. Thank you, Chief Tidwell, for being here with us today.    One thing I hear often from our rural and forested communities is the concern that the Forest Service staff, jobs, and offices continue to move further away from the rural areas that they represent and impact. More and more, we see fewer agency boots on the ground, fewer personnel interacting with the communities that are most impacted by their actions. And when personnel live outside of the district, and work remotely 40 or 50 miles from the forests, they have less knowledge about what is happening in the woods that they are supposed to be managing, and what is happening in the communities as well.    The communities also lose the diversity of their community and suffer economic impacts when folks live and work elsewhere. And we have some great Forest Service staff in our communities, in the Mount Baker-Snoqualmie Forest in particular, but I would be interested to hear your thoughts and comments on this issue, which is a growing disconnect across our country.</t>
   </si>
   <si>
@@ -148,6 +172,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Okay. Well, thank you, Chief, for coming and appearing before the Subcommittee today.    My former role in life was in the construction industry, and we did use a lot of laminated timber for large spans in gymnasiums and other facilities, which created these facilities. And so I look forward to continuing working with you and our industry on those types of applications.    In my home State of Georgia, we have over 24 million acres in private forest, which I am told is the most of any state in the nation.    I meet, and since I have been in Congress now for a little over 4 months, and we have met with a number of our timber folks. They have questioned--the first thing I should say is you have talked about funding today, but they have questioned the U.S. Forest Service management practices, which a lot of those management practices deal with preventing the outbreak of a fire. Are we where we need to be with the extent of management practices in the Forest Service to prevent these fires?</t>
   </si>
   <si>
@@ -181,6 +211,12 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen.--because we have a lot of folks, a lot of friends in that business, and they can help you get answers to those questions. Thank you, Chief.    And with that, I yield back the remainder of my time.    The Chairman. I thank the gentleman.    I now recognize the gentlelady from Arizona for 5 minutes of questioning.    Mrs. Kirkpatrick. Thank you, Mr. Chairman.    Chief, it is nice to see you here today. And in following along the line of sustainability, I was born in the timber town of McNary, Arizona. In fact, I spent most of my life living in the mountain forests of Arizona, and I have seen the change in wildfire. And, of course, about this time of year, we become very concerned about the horrific wildfires that we have had to endure in the last few years.    And so I was happy to see in your written testimony that you acknowledged the Four Forest Restoration Project, which is an innovative collaborative approach to addressing forest health, and bringing back the timber industry. Recently, the Record of Decision was signed on April 17 for the initial environmental impact statement, but there have been stumbles along the way, as you know. I just wanted to reference a recent editorial from the Arizona Republic, and, Mr. Chairman and Ranking Member, I would like it added to the record. It addresses some of the changes and--that this is going to--the good things that are going to happen out of this, but also some of the challenges that we face.    The Chairman. Without objection.    [The information referred to is located on p. 91.]</t>
   </si>
   <si>
@@ -196,6 +232,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Thank you very much, Mr. Chairman. And thank you too, Ranking Member Lujan Grisham. And thank you to Chief Tidwell for being with us today. We appreciate the time. I am very grateful for the work that you do, and to your Forest Service staff in New Hampshire and the work that we are focused on.    I want to share with you are some concerns with you, though we may have to leave for a vote soon so I am going to just cut to the chase. I am usually much more polite. The question is from recent conversations. I meet with my timber and lumber and landowners frequently, and they were expressing a great deal of frustration that their forest management plans were not living up to their goals. And as I was listening to them, it just felt like a disconnect. Sometimes around here you will get one version from one group and another version from another, but it seemed that the forest management plans didn't necessarily reflect the reality of what is happening, or what, frankly, could happen on the ground. And so I realize that there are budgetary and other constraints keeping the Forest Service from getting closer to meeting the timber harvest goals, but my concern is a little bit different, and I would love your response to it. I am wondering if whether the forest management plans aren't based on formulas or guidelines that don't take into the reality on the ground; location, ease of access, species distribution, land use goals, and that really what--I am an attorney, we call that a meeting of the minds that we don't have a meeting of the minds laid out in that plan, and then we end up with these divergent expectations, and peoples' goals are not being met. Could you comment, and is there anything that we could do to get people closer to actually having an understanding of the amount of timber that we can harvest from the land in a sustainable way?</t>
   </si>
   <si>
@@ -220,6 +259,12 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    Just a real quick question, because I noticed in your written testimony, and when we were looking that over, and you may not know the answer to this but if you can find it out, one of the things you talked about was a specific project. It was a Kinkaid Reeds Creek Project. And I am very, very familiar with that, and as a matter of fact, I was around when the lake was--I was around driving with my grandfather in a truck when the dam was built for that, okay? And when it was built, we knew that the watershed was a very quick watershed, and it is a very deep lake, but the project that you worked on is a silting on the north end. Are you familiar enough with the project, because what I am going to ask--and if I can't get that answer today, I would like to get it in writing. I know you are working with the different groups to try to stop the silting from coming in. Is it to the point that you have slowed it enough, and if it is not slowed enough, can it be slowed enough that then we can dredge that north end, and take the depth of that particular water reservoir back to where it was. The water's depth is good now, but we need to make sure that we get it back down to the depth, and I didn't know if we were to that point or not.</t>
   </si>
   <si>
@@ -289,10 +334,19 @@
     <t xml:space="preserve">    Ms. Lujan Grisham. Mr. Chairman, that is very kind. And I was going to thank Ms. Laura McCarthy, who is the Director of the Conservation Programs at The Nature Conservancy in Santa Fe, New Mexico, which, unfortunately, is not in my district, but where I grew up, and has had a great influence on many projects not only in my district, but the health of so many issues, and forests and conservation issues across the state. And I just want to thank you for your work with my office, and I am very gratified that you are here today. Thank you so much. And thank you, Mr. Chairman.    The Chairman. All right. Now, we will proceed.    Ms. Swanson, go ahead and proceed with your 5 minutes of testimony whenever you are ready.</t>
   </si>
   <si>
+    <t>Swanson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Swanson. I forgot to press the button. Should have known. And the Federal Forest Resource Coalition. I really appreciate the opportunity to talk to you about our National Forest, which is the Allegheny. The Allegheny is our largest landownership block in our region at 513,000 acres, which is really small compared to a lot of your National Forests. But the management of that forest is vital for the future of the forest products industry.    The Allegheny, like many National Forests, is not really contributing to where we would like it, and able to support our local economy, and meet the goals that are actually laid out in our forest plan. After years of timber sale litigation, the plan actually set some very modest goals. For example, the goal for regeneration harvest is 1,700 to 2,500 acres per year. And in the first 6 years of implementation, the forest has only averaged 500 acres of regeneration harvest. So you can see that that isn't going to get us where we need to go. And the result of that is we have very much less early succession forest than what we would like to have. Over the last 5 years, timber outputs for the forest have declined by about 11 percent, and in addition to that, 40 percent of our outputs is in lower value timber rather than the valuable saw timber that drives our forest products economy.    Pennsylvania is known for its high quality hardwoods, and the Allegheny has always been in the center of that. At least it has in the past. It seems to us that the problems are sort of two-fold, probably more than that, but I am going to speak to two. Initially, when the forest draws up plans to work on projects, and they would actually meet forest plan objectives. Then, after lengthy NEPA and surveys, layer upon layer, the projects are actually diminished, and in some cases, in the end, they don't actually meet the objectives that were laid out in the first place. And generally, they have marginal economic value for timber producers. The goal of a diverse healthy forest ecosystem is often compromised.    Second, the forest, because of litigation, has decided the best approach to management is to try to develop projects that would draw no objections. This tendency to kind of assume that collaboration must mean unanimous, gives management groups power over them, whether they appeal or not. And we have actually seen where our forest didn't use the new authority that they were given under the insect and disease designation. We would like to see them do that. We have Hemlock woolly adelgid in our state, we have the Emerald Ash Borer, and we would have liked to have seen them use it on those things. And we hope that they will, but they are a little afraid to be the first one in the East to actually use that.    At the end of the day, we have an aging forest that is starting to show serious signs of decline. Instead of regeneration of commercially valuable species, we are focusing on thinning, older stands. Professional foresters talk about the need to continue to change the stand composition. It is like prescribing vigorous exercise to nursing home residents. Something is probably going to happen, but I don't know if it will be good.    In my written testimony, we made some recommendations about further legislation. The farm bill and the things that you have done we really appreciate, but it does encourage collaboration, it expedites analysis, and it reduces gridlock, but the real need is to clarify the management mandate on National Forests. Go beyond giving them permission to manage, and start providing direction for them to manage. I would like to see a trust approach to relatively small portions of the National Forest designated for timber production. It would be a good starting point. Let's manage those areas that we really are supposed to manage. Federal Forest Resource Coalition stands ready to help the Forest Service and you to do that. We would like to find a better way.</t>
   </si>
   <si>
+    <t>Humphries</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Humphries. Well, thank you very much, Mr. Chairman, Ranking Member.    The National Wild Turkey Federation applauds the Committee's focus on active forest management. We have 230,000 members across the country, and active chapters in each and every state of this country.    With the successful restoration of the wild turkey across its range, we have refocused our efforts and are working on Save the Habitat, Save the Hunt initiative. This initiative is really geared at making sure that we are doing active forest management, and helping to improve that upland habitat that is so important for wild turkeys, as well as of other host of species, and also saving our hunting heritage that is so important.    Wildlife managers and our wildlife biologists consider active management the best solution to meet habitat requirements of the largest variety of species, and create young forest habitat that provide for food, nesting habitat, and hiding places for wildlife. Throughout the United States, we are losing the diversity at a landscape level scale, threatening habitat for species like the Golden Wing Warbler, the New England Cottontail, the Gopher Tortoise, the Red-cockaded Woodpecker, and many, many other species. We have a number of examples, but I will give you just three of them as we talk today. On the Oconee National Forest in Piedmont National Wildlife Refuge in Georgia, we and the U.S. Forest Service have actively managed over 21,000 acres of loblolly pine habitat to increase pine savannah and young forest habitat for endangered Red-cockaded Woodpecker. It has resulted in a 27 percent increase in potential breeding pairs on that, as well as population increases for the Southern Flying Squirrel, the Bobwhite Quail, the wild turkey, and a variety of migratory songbirds. The management of healthy forests is made economically viable by the harvest and sale of forest products, including timber, and timber sales offset the cost of reforestation, invasive species control, prescribed fire, and timber stand improvements.    Federal lands play a really vital role in maintaining healthy forests, in that they are resilient to the threats at this landscape level. Federal timber management keeps the mills open, it brings stability to the supply and demand market, and it provides local jobs, and we need those. Active management of our Federal forests reduces devastating wildfires, it reduces insect and forest diseases before those diseases can spread to adjacent state lands and private forestlands, and increases forest health and diversity.    We really appreciate the authorities that have been granted in recent years by the Agriculture Committee to address forest health. The 2014 Farm Bill, as has been mentioned, has granted permanent authorization of stewardship contracting and Good Neighbor Authority. It has also established insect and disease area designations to the existing Wyden Amendment and Cooperative Forest Landscape Restoration Programs. These authorities can lead to healthier forests if they are implemented properly. The National Wild Turkey Federation has been the leader in stewardship contracting program, and we have partnered with the U.S. Forest Service on 81 forest stewardship projects in the last decade.    A couple of these examples: In New Mexico, we worked on the Cibola National Forest, and it was part of the Blue Waters Stewardship Agreement. The National Wild Turkey Federation and our partners, including the Mount Taylor Machine Sawmill, have provided matching funds to the project which has expanded a number of treated acres by over 20 percent in that particular area. The work makes the forest healthier, it supports a small community of Milan, New Mexico.    In another example, we also worked with Land Between the Lakes National Recreation Area in Kentucky and Tennessee. Following a damaging ice storm, we restored access to over 170,000 acres by facilitating multiple logging contracts to open the roads and clean up debris, and our stewardship efforts continue to work on almost 6,000 acres each and every year there.    Despite all this, we need to move forward and have more progress made on active management. So I offer the following suggestions. First, we need to help the agencies expand collaborative efforts in the early stages of the process, and that means talking about the benefits of active management needed to carry out those in order to get the desired future condition. It needs to start at the beginning, not at the end, as was mentioned. We need to work at the landscape level to achieve broad benefits, and that means working across ownership patterns. Not only the various Federal agencies, but also the state agencies and local. We need to solve the fire-funding program, which has been brought up numerous times today. The situation currently is just unacceptable. We need to encourage Federal agencies to use all available tools and all available authorities, and that includes the use of categorical exclusions.    I would like to close by saying the Committee has done great work. We stand ready to help both the National Forest System and this Committee as we move forward, and look to active management to make our forests healthier and sustainable in the future. Thank you.</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McCarthy. Thank you, Mr. Chairman, Ranking Member Lujan Grisham. I am Laura McCarthy with The Nature Conservancy in New Mexico, and I really appreciate this opportunity to share why National Forest management is so important to the people in my state, and give a little bit of a western perspective.    The reason National Forests are so important is water, and I am going to explain why with a few slides. You can see up here, this is the fire scene nobody wants to see looming over their town, but unfortunately for us in 2011, that is what we were greeted with. What is most important about that fire is what it left behind. This image is taken in Bland Canyon, and we ended up with a 30,000 acre hole that looked like this with nothing living in it. This is an out of category kind of severity and intensity of fire.    This will start automatically. It should be a video that is going to show you what happens when it rains on a burned area. This is actually a debris flow that came out of that burned area that I showed in the previous slide, and it happened after two very average afternoon thunderstorms about 6 weeks after the fire. It took 20 minutes for the water to get out of the headwaters, down into the valley. You can see an apple orchard there, and you can see barriers that the Army Corps of Engineers set up, expecting a volume of flow substantially less than what actually occurred. This kind of flooding keeps happening. It is now 4 years later and we are still having events that are depositing sediment into our river.    This is property damage after that flood. And this is where that canyon comes into the Rio Grande, and you can see a big mass of sediment that the Army Corps of Engineers estimates is 70\x7f deep. So we have mass movement of sediment, literally the soil, the lifeblood, out of the headwaters, down into the river, and this river carries water that supplies drinking water for \\1/2\\ of our state's population, and irrigates the incredibly productive farmland in the Rio Grande Valley. So it is very significant to us.    This is the reservoir that is \\1/2\\ a mile down from the confluence of Bland Canyon and the Rio Grande, and this was taken on the day after the flood. You can see what the reservoir looked like. The water samples are not from the reservoir, they are from another river that was affected by the same fire.    So now the solution. The science is really clear. We need to accelerate the pace and scale of restoration, and we want to really complement the Forest Service and the Administration for putting a focus on accelerating the pace and scale of restoration. You can't stop a fire from growing 43,000 acres in less than a day if all you can treat is 3,000 acres a year. We need to scale-up. And the Forest Service can't do it alone. That flood that I showed crossed many jurisdictions, and so must our solution. So we need to involve the Interstate Stream Commission, which manages the Rio Grande. We need to involve the Federal agencies that manage water.    What we have done in New Mexico is create a new partnership that we call the Rio Grande Water Fund, and it is much like many other collaboratives. What is unique though is the way in which we have involved the business community. We went to them, we started with the Chamber of Commerce in Albuquerque, we asked them if they were concerned about water security, and they responded really positively. So we have a very diverse partnership. We are leveraging funding from the business sector, also from the private sector in the philanthropy world, and the LOR Foundation is here with me today, because of the significant investment they have made as a catalyst for bringing other funding solutions to the table to leverage the Federal dollars.    Let me conclude with one policy priority. This is the compelling need for this Congress, in my opinion, and in The Nature Conservancy's view, and that is to provide a new fire suppression funding mechanism. It has been talked about by several of you today. A disaster cap adjustment is absolutely essential if you are able, as a Congress, to solve that problem, then the rest of the pieces are going to fall into place. It is the 800 pound gorilla. And we urge you to take action. We appreciate your leadership, and look forward to being able to work constructively on the other forest management issues once the fire-funding problem is solved.</t>
@@ -710,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,2429 +794,2823 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
       <c r="H40" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
       <c r="H53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>106</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>110</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>110</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>106</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>106</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>108</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94655.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lujan Grisham</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>412436</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Benishek</t>
@@ -764,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2820 +806,3012 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>109</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>108</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>111</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>110</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>113</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>109</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>111</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>109</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>109</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>108</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>111</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>113</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>108</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>111</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>133</v>
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
